--- a/xlsx/法语_intext.xlsx
+++ b/xlsx/法语_intext.xlsx
@@ -29,7 +29,7 @@
     <t>法国</t>
   </si>
   <si>
-    <t>政策_政策_美國_法语</t>
+    <t>体育运动_体育运动_欧洲议会_法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81_(%E6%B3%95%E5%9B%BD)</t>
@@ -7330,7 +7330,7 @@
         <v>292</v>
       </c>
       <c r="G148" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -7504,7 +7504,7 @@
         <v>298</v>
       </c>
       <c r="G154" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -7562,7 +7562,7 @@
         <v>300</v>
       </c>
       <c r="G156" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -7591,7 +7591,7 @@
         <v>300</v>
       </c>
       <c r="G157" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -7678,7 +7678,7 @@
         <v>304</v>
       </c>
       <c r="G160" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -7707,7 +7707,7 @@
         <v>304</v>
       </c>
       <c r="G161" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7736,7 +7736,7 @@
         <v>306</v>
       </c>
       <c r="G162" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -8026,7 +8026,7 @@
         <v>316</v>
       </c>
       <c r="G172" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -8142,7 +8142,7 @@
         <v>320</v>
       </c>
       <c r="G176" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -8432,7 +8432,7 @@
         <v>330</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -8461,7 +8461,7 @@
         <v>330</v>
       </c>
       <c r="G187" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -8490,7 +8490,7 @@
         <v>332</v>
       </c>
       <c r="G188" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8519,7 +8519,7 @@
         <v>332</v>
       </c>
       <c r="G189" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -8925,7 +8925,7 @@
         <v>346</v>
       </c>
       <c r="G203" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -8983,7 +8983,7 @@
         <v>348</v>
       </c>
       <c r="G205" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -9070,7 +9070,7 @@
         <v>352</v>
       </c>
       <c r="G208" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -9099,7 +9099,7 @@
         <v>352</v>
       </c>
       <c r="G209" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -9389,7 +9389,7 @@
         <v>362</v>
       </c>
       <c r="G219" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9476,7 +9476,7 @@
         <v>366</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
